--- a/现金流量表/300913.xlsx
+++ b/现金流量表/300913.xlsx
@@ -744,57 +744,55 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>62401153.25</v>
+        <v>68041416.11</v>
       </c>
       <c r="P2" t="n">
-        <v>234.3112629817</v>
+        <v>377.9480404127</v>
       </c>
       <c r="Q2" t="n">
-        <v>858309567.25</v>
+        <v>819157013.5599999</v>
       </c>
       <c r="R2" t="n">
-        <v>3222.8827234313</v>
+        <v>4550.1520362947</v>
       </c>
       <c r="S2" t="n">
-        <v>76768928.55</v>
+        <v>65967001.56</v>
       </c>
       <c r="T2" t="n">
-        <v>288.2610924551</v>
+        <v>366.4253391081</v>
       </c>
       <c r="U2" t="n">
-        <v>-43374106.57</v>
+        <v>-27791815.4</v>
       </c>
       <c r="V2" t="n">
-        <v>-162.8662478465</v>
+        <v>-154.3745378985</v>
       </c>
       <c r="W2" t="n">
         <v>80000</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3003935034</v>
+        <v>0.4443741027</v>
       </c>
       <c r="Y2" t="n">
-        <v>43624106.57</v>
+        <v>27881815.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>163.8049775445</v>
+        <v>154.8744587641</v>
       </c>
       <c r="AA2" t="n">
-        <v>9040606.859999999</v>
+        <v>-59153365.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>33.9467445898</v>
+        <v>-328.5777975871</v>
       </c>
       <c r="AC2" t="n">
-        <v>26631734.41</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>247.9306635355</v>
-      </c>
+        <v>-18002849.29</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
